--- a/CSE/Shell&Pythoncmds.xlsx
+++ b/CSE/Shell&Pythoncmds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\younglings\Documents\CSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\younglings\Documents\2122AMnotes\CSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247832B-DF65-4D88-85D4-CC955F11AC99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D871DA1C-E87B-4C51-8C0A-725664831934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{078FBD4B-73F9-47DB-A486-CE5A27577561}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>cd</t>
   </si>
@@ -139,6 +139,33 @@
   </si>
   <si>
     <t>get clone &lt;repolink&gt;</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m "in quotes a message to state what you did"</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>Download files from Git</t>
+  </si>
+  <si>
+    <t>cd documents</t>
+  </si>
+  <si>
+    <t>cd repo</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git status</t>
   </si>
 </sst>
 </file>
@@ -499,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F31517-C053-47FD-808B-29EBF7DEED0D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,8 +540,9 @@
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="27.5546875" customWidth="1"/>
     <col min="6" max="6" width="1.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
     <col min="8" max="8" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -600,6 +628,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -661,6 +692,46 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
